--- a/Velocity.xlsx
+++ b/Velocity.xlsx
@@ -337,7 +337,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1683,7 +1683,7 @@
   <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4">
         <v>18</v>
